--- a/biology/Médecine/1592_en_santé_et_médecine/1592_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1592_en_santé_et_médecine/1592_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1592_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1592_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1592 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1592_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1592_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En réunissant les hôpitaux Saint-Jacques-de-Galice et du Saint-Esprit, respectivement créés en 1188 et 1358, Charles de Casaulx, consul de la ville, fonde l'établissement qui deviendra l'Hôtel-Dieu de Marseille[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En réunissant les hôpitaux Saint-Jacques-de-Galice et du Saint-Esprit, respectivement créés en 1188 et 1358, Charles de Casaulx, consul de la ville, fonde l'établissement qui deviendra l'Hôtel-Dieu de Marseille.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1592_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1592_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prospero Alpini publie son De plantis Ægypti[2] où « les plantes thérapeutiques […] font l'objet d'une longue étude, illustrée de dessins primitifs mais exacts[3] ».
-Fabio Colonna fait paraître à Naples un herbier, sous le titre de Phytobasanos qui signifie « la torture des plantes[4] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prospero Alpini publie son De plantis Ægypti où « les plantes thérapeutiques […] font l'objet d'une longue étude, illustrée de dessins primitifs mais exacts ».
+Fabio Colonna fait paraître à Naples un herbier, sous le titre de Phytobasanos qui signifie « la torture des plantes ».</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1592_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1592_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacques de Bondt (mort en 1631), médecin et naturaliste néerlandais, auteur d'un De medicina Indorum et d'une Historia naturalis et medica Indiae orientalis, parus respectivement, à titre posthume, en 1642 et 1658[5].
-Francisco Maldonado De Silva (mort en 1639), médecin-chirurgien péruvien, « nouveau chrétien » retourné au judaïsme et auteur de pamphlets antichrétiens[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacques de Bondt (mort en 1631), médecin et naturaliste néerlandais, auteur d'un De medicina Indorum et d'une Historia naturalis et medica Indiae orientalis, parus respectivement, à titre posthume, en 1642 et 1658.
+Francisco Maldonado De Silva (mort en 1639), médecin-chirurgien péruvien, « nouveau chrétien » retourné au judaïsme et auteur de pamphlets antichrétiens.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1592_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1592_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14 octobre : Urbain Hémard (né vers 1548), médecin et dentiste français[7].
-1592 ou 1594 : Cristobal Acosta (né à une date inconnue), naturaliste et médecin portugais[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 octobre : Urbain Hémard (né vers 1548), médecin et dentiste français.
+1592 ou 1594 : Cristobal Acosta (né à une date inconnue), naturaliste et médecin portugais.</t>
         </is>
       </c>
     </row>
